--- a/data/STATS 2022-23.xlsx
+++ b/data/STATS 2022-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totti/Developer/fun/tamarindi-web/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E23276E-FDBA-794E-9921-381D7482AAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F00989-037E-A44F-9AD5-FC01A1A0B6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10140" yWindow="5780" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,9 +474,6 @@
     <t>Torretta [R parato]</t>
   </si>
   <si>
-    <t>Colella [Y[</t>
-  </si>
-  <si>
     <t xml:space="preserve">     2-3</t>
   </si>
   <si>
@@ -511,6 +508,9 @@
   </si>
   <si>
     <t>Coddetta [R]</t>
+  </si>
+  <si>
+    <t>Colella [Y]</t>
   </si>
 </sst>
 </file>
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5344,7 +5344,7 @@
       <c r="A74" s="7"/>
       <c r="B74" s="25"/>
       <c r="C74" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="23"/>
@@ -7444,7 +7444,7 @@
       <c r="A134" s="7"/>
       <c r="B134" s="25"/>
       <c r="C134" s="32" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="23"/>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>99</v>
@@ -7834,10 +7834,10 @@
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F145" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
@@ -8000,7 +8000,7 @@
     </row>
     <row r="150" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B150" s="23"/>
       <c r="C150" s="7"/>
@@ -8077,7 +8077,7 @@
         <v>100</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
@@ -8138,7 +8138,7 @@
     </row>
     <row r="154" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B154" s="30"/>
       <c r="C154" s="23"/>
@@ -8215,7 +8215,7 @@
         <v>98</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
@@ -8321,7 +8321,7 @@
         <v>98</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
@@ -8427,7 +8427,7 @@
         <v>106</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
@@ -8564,10 +8564,10 @@
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F166" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="F166" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
@@ -8598,7 +8598,7 @@
       <c r="A167" s="7"/>
       <c r="B167" s="25"/>
       <c r="C167" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D167" s="34"/>
       <c r="E167" s="23"/>
